--- a/T2/Datos Tarea 2.xlsx
+++ b/T2/Datos Tarea 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/julio_orozco_uc_cl/Documents/Documents/RENTA-FIJA/T2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="11_AD4D2F04E46CFB4ACB3E2011B557EC10693EDF10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D75E340B-213B-4853-A619-FA727F0A6DFA}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="11_AD4D2F04E46CFB4ACB3E2011B557EC10693EDF10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98104184-504F-4E08-89DE-10BBD61A379B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E275"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
